--- a/docs/画面項目定義書/virtual_network_management/virtual_network_detail.xlsx
+++ b/docs/画面項目定義書/virtual_network_management/virtual_network_detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_network_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0191A25F-C035-4CF4-B0A3-6D3D92A28818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF12134-F7E9-4481-9EDE-4CF00CC4417E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>日本工学院</t>
   </si>
@@ -172,6 +172,10 @@
     <rPh sb="11" eb="12">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>virtual_network_detail.html</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1046,7 +1050,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1115,7 +1119,9 @@
         <v>22</v>
       </c>
       <c r="B6" s="40"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
